--- a/ExcelTest.xlsx
+++ b/ExcelTest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qianghmcts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qianghmcts/tmp/TestExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD84BF8-3E12-964C-B8DC-4B191819574C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D95B12-27FC-4144-B91F-084331B05EC9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" xr2:uid="{A281B55A-419D-4343-B18E-4C88DC439813}"/>
   </bookViews>
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061C5DC6-A70C-B149-BF95-2017128949F9}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -434,6 +434,214 @@
         <v>7</v>
       </c>
       <c r="H1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
         <v>8</v>
       </c>
     </row>
